--- a/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Save_Back_Front_Navi.xlsx
+++ b/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Save_Back_Front_Navi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27435" windowHeight="13230"/>
+    <workbookView windowWidth="27465" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341">
   <si>
     <t>Step No</t>
   </si>
@@ -514,6 +514,9 @@
   </si>
   <si>
     <t>LLS_SUB_RELATION</t>
+  </si>
+  <si>
+    <t>Child</t>
   </si>
   <si>
     <t>LLS_OP_PRESCRIPTION_NO</t>
@@ -1058,10 +1061,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1106,13 +1109,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1121,15 +1117,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1151,9 +1140,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1161,7 +1150,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1181,15 +1185,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1197,10 +1192,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1212,8 +1208,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1227,23 +1224,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1264,19 +1267,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799951170384838"/>
         <bgColor theme="4" tint="0.799951170384838"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1288,7 +1315,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1300,13 +1381,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1318,43 +1435,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1366,102 +1453,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1512,49 +1509,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
         <color theme="4" tint="0.399945066682943"/>
       </top>
       <bottom style="thin">
         <color theme="4" tint="0.399945066682943"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1594,11 +1552,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1612,17 +1591,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1644,13 +1617,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1662,134 +1635,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1802,24 +1775,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2249,8 +2214,8 @@
   <sheetPr/>
   <dimension ref="A1:H130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="D134" sqref="D134"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2334,20 +2299,20 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="9" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="9"/>
@@ -2356,20 +2321,20 @@
       <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="9" t="s">
         <v>23</v>
       </c>
       <c r="H5" s="11"/>
@@ -2378,38 +2343,38 @@
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9">
         <v>3</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="9" t="s">
         <v>28</v>
       </c>
       <c r="H7" s="11"/>
@@ -2418,22 +2383,22 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="9" t="s">
         <v>32</v>
       </c>
       <c r="H8" s="9"/>
@@ -2442,20 +2407,20 @@
       <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="C9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="9" t="s">
         <v>35</v>
       </c>
       <c r="H9" s="11"/>
@@ -2464,54 +2429,54 @@
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="12" t="s">
+      <c r="C10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9">
         <v>4</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="12" t="s">
+      <c r="C12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="9" t="s">
         <v>23</v>
       </c>
       <c r="H12" s="9"/>
@@ -2520,18 +2485,18 @@
       <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9">
         <v>4</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="11"/>
@@ -2546,7 +2511,7 @@
       <c r="C14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="9"/>
@@ -2580,10 +2545,10 @@
       <c r="C16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="13" t="s">
         <v>43</v>
       </c>
       <c r="F16" s="9" t="s">
@@ -2602,8 +2567,8 @@
         <v>11</v>
       </c>
       <c r="C17" s="11"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17">
+      <c r="D17" s="14"/>
+      <c r="E17" s="15">
         <v>2</v>
       </c>
       <c r="F17" s="11"/>
@@ -2620,7 +2585,7 @@
       <c r="C18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="12" t="s">
         <v>47</v>
       </c>
       <c r="E18" s="9">
@@ -2644,7 +2609,7 @@
       <c r="C19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="14" t="s">
         <v>50</v>
       </c>
       <c r="E19" s="11">
@@ -2668,7 +2633,7 @@
       <c r="C20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E20" s="9"/>
@@ -2690,7 +2655,7 @@
       <c r="C21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E21" s="11"/>
@@ -2712,7 +2677,7 @@
       <c r="C22" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="12" t="s">
         <v>57</v>
       </c>
       <c r="E22" s="9">
@@ -2778,7 +2743,7 @@
       <c r="C25" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="14" t="s">
         <v>64</v>
       </c>
       <c r="E25" s="11" t="s">
@@ -2798,7 +2763,7 @@
       <c r="C26" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="12" t="s">
         <v>66</v>
       </c>
       <c r="E26" s="9" t="s">
@@ -2822,7 +2787,7 @@
       <c r="C27" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="14" t="s">
         <v>70</v>
       </c>
       <c r="E27" s="11" t="s">
@@ -2846,7 +2811,7 @@
       <c r="C28" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="12" t="s">
         <v>74</v>
       </c>
       <c r="E28" s="9" t="s">
@@ -2870,7 +2835,7 @@
       <c r="C29" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="14" t="s">
         <v>78</v>
       </c>
       <c r="E29" s="11" t="s">
@@ -2894,7 +2859,7 @@
       <c r="C30" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="12" t="s">
         <v>82</v>
       </c>
       <c r="E30" s="9" t="s">
@@ -3012,7 +2977,7 @@
       <c r="G35" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="H35" s="18"/>
+      <c r="H35" s="16"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="10">
@@ -3056,7 +3021,7 @@
       <c r="G37" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="H37" s="18"/>
+      <c r="H37" s="16"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="10">
@@ -3104,7 +3069,7 @@
       <c r="G39" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="H39" s="18"/>
+      <c r="H39" s="16"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="10">
@@ -3148,7 +3113,7 @@
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
-      <c r="H41" s="18"/>
+      <c r="H41" s="16"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="7">
@@ -3188,7 +3153,7 @@
       </c>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
-      <c r="H43" s="18"/>
+      <c r="H43" s="16"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="7">
@@ -3230,7 +3195,7 @@
       <c r="G45" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H45" s="18"/>
+      <c r="H45" s="16"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="10">
@@ -3242,7 +3207,7 @@
       <c r="C46" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="12" t="s">
         <v>118</v>
       </c>
       <c r="E46" s="9" t="s">
@@ -3272,7 +3237,7 @@
       <c r="G47" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H47" s="18"/>
+      <c r="H47" s="16"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="10">
@@ -3294,81 +3259,81 @@
       <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="D49" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19" t="s">
+      <c r="E49" s="9"/>
+      <c r="F49" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="G49" s="21" t="s">
+      <c r="G49" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H49" s="19"/>
+      <c r="H49" s="9"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="10">
         <v>49</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22">
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11">
         <v>4</v>
       </c>
-      <c r="F50" s="22"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="22"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="11"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="10">
         <v>50</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="D51" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19" t="s">
+      <c r="E51" s="9"/>
+      <c r="F51" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="G51" s="21" t="s">
+      <c r="G51" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H51" s="19"/>
+      <c r="H51" s="9"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="7">
         <v>51</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22">
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11">
         <v>4</v>
       </c>
-      <c r="F52" s="22" t="s">
+      <c r="F52" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G52" s="23" t="s">
+      <c r="G52" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H52" s="22"/>
+      <c r="H52" s="11"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="10">
@@ -3388,7 +3353,7 @@
       <c r="G53" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H53" s="18"/>
+      <c r="H53" s="16"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="7">
@@ -3436,7 +3401,7 @@
       <c r="G55" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H55" s="18"/>
+      <c r="H55" s="16"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="10">
@@ -3472,7 +3437,7 @@
       <c r="C57" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D57" s="16" t="s">
+      <c r="D57" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E57" s="11"/>
@@ -3482,7 +3447,7 @@
       <c r="G57" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="H57" s="18"/>
+      <c r="H57" s="16"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="10">
@@ -3494,10 +3459,10 @@
       <c r="C58" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="D58" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="E58" s="15" t="s">
+      <c r="E58" s="13" t="s">
         <v>139</v>
       </c>
       <c r="F58" s="9"/>
@@ -3524,7 +3489,7 @@
       <c r="G59" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H59" s="18"/>
+      <c r="H59" s="16"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="10">
@@ -3546,81 +3511,81 @@
       <c r="A61" s="10">
         <v>60</v>
       </c>
-      <c r="B61" s="19" t="s">
+      <c r="B61" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C61" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D61" s="20" t="s">
+      <c r="D61" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19" t="s">
+      <c r="E61" s="9"/>
+      <c r="F61" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="G61" s="21" t="s">
+      <c r="G61" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H61" s="19"/>
+      <c r="H61" s="9"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B62" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22">
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11">
         <v>4</v>
       </c>
-      <c r="F62" s="22"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="22"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="11"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="10">
         <v>62</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="B63" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C63" s="19" t="s">
+      <c r="C63" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D63" s="20" t="s">
+      <c r="D63" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19" t="s">
+      <c r="E63" s="9"/>
+      <c r="F63" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="G63" s="21" t="s">
+      <c r="G63" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H63" s="19"/>
+      <c r="H63" s="9"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="7">
         <v>63</v>
       </c>
-      <c r="B64" s="22" t="s">
+      <c r="B64" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22">
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11">
         <v>4</v>
       </c>
-      <c r="F64" s="22" t="s">
+      <c r="F64" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G64" s="23" t="s">
+      <c r="G64" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H64" s="22"/>
+      <c r="H64" s="11"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="10">
@@ -3632,7 +3597,7 @@
       <c r="C65" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D65" s="16" t="s">
+      <c r="D65" s="14" t="s">
         <v>140</v>
       </c>
       <c r="E65" s="11" t="s">
@@ -3644,7 +3609,7 @@
       <c r="G65" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="H65" s="18"/>
+      <c r="H65" s="16"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="10">
@@ -3654,7 +3619,7 @@
         <v>11</v>
       </c>
       <c r="C66" s="9"/>
-      <c r="D66" s="14"/>
+      <c r="D66" s="12"/>
       <c r="E66" s="9">
         <v>4</v>
       </c>
@@ -3670,7 +3635,7 @@
         <v>144</v>
       </c>
       <c r="C67" s="11"/>
-      <c r="D67" s="16"/>
+      <c r="D67" s="14"/>
       <c r="E67" s="11"/>
       <c r="F67" s="11" t="s">
         <v>145</v>
@@ -3678,7 +3643,7 @@
       <c r="G67" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="H67" s="18"/>
+      <c r="H67" s="16"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="10">
@@ -3690,7 +3655,7 @@
       <c r="C68" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D68" s="14" t="s">
+      <c r="D68" s="12" t="s">
         <v>147</v>
       </c>
       <c r="E68" s="9" t="s">
@@ -3714,7 +3679,7 @@
       <c r="C69" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D69" s="16" t="s">
+      <c r="D69" s="14" t="s">
         <v>150</v>
       </c>
       <c r="E69" s="11" t="s">
@@ -3726,7 +3691,7 @@
       <c r="G69" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="H69" s="18"/>
+      <c r="H69" s="16"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="10">
@@ -3738,7 +3703,7 @@
       <c r="C70" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="14" t="s">
+      <c r="D70" s="12" t="s">
         <v>154</v>
       </c>
       <c r="E70" s="9"/>
@@ -3760,7 +3725,7 @@
       <c r="C71" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="16" t="s">
+      <c r="D71" s="14" t="s">
         <v>157</v>
       </c>
       <c r="E71" s="11"/>
@@ -3770,7 +3735,7 @@
       <c r="G71" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="H71" s="18"/>
+      <c r="H71" s="16"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="7">
@@ -3782,11 +3747,11 @@
       <c r="C72" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D72" s="14" t="s">
+      <c r="D72" s="12" t="s">
         <v>160</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
@@ -3802,13 +3767,13 @@
       <c r="C73" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D73" s="16" t="s">
-        <v>161</v>
+      <c r="D73" s="14" t="s">
+        <v>162</v>
       </c>
       <c r="E73" s="11"/>
       <c r="F73" s="11"/>
       <c r="G73" s="11"/>
-      <c r="H73" s="18"/>
+      <c r="H73" s="16"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="7">
@@ -3820,8 +3785,8 @@
       <c r="C74" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D74" s="14" t="s">
-        <v>162</v>
+      <c r="D74" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
@@ -3838,17 +3803,17 @@
       <c r="C75" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D75" s="16" t="s">
-        <v>163</v>
+      <c r="D75" s="14" t="s">
+        <v>164</v>
       </c>
       <c r="E75" s="11"/>
       <c r="F75" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="H75" s="18"/>
+        <v>166</v>
+      </c>
+      <c r="H75" s="16"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="10">
@@ -3860,8 +3825,8 @@
       <c r="C76" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D76" s="14" t="s">
-        <v>166</v>
+      <c r="D76" s="12" t="s">
+        <v>167</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
@@ -3878,13 +3843,13 @@
       <c r="C77" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="16" t="s">
-        <v>167</v>
+      <c r="D77" s="14" t="s">
+        <v>168</v>
       </c>
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
-      <c r="H77" s="18"/>
+      <c r="H77" s="16"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="10">
@@ -3896,15 +3861,15 @@
       <c r="C78" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D78" s="14" t="s">
-        <v>168</v>
+      <c r="D78" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H78" s="8"/>
     </row>
@@ -3918,7 +3883,7 @@
       <c r="C79" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D79" s="16" t="s">
+      <c r="D79" s="14" t="s">
         <v>88</v>
       </c>
       <c r="E79" s="11"/>
@@ -3928,7 +3893,7 @@
       <c r="G79" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H79" s="18"/>
+      <c r="H79" s="16"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="10">
@@ -3954,81 +3919,81 @@
       <c r="A81" s="10">
         <v>80</v>
       </c>
-      <c r="B81" s="19" t="s">
+      <c r="B81" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C81" s="19" t="s">
+      <c r="C81" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D81" s="20" t="s">
+      <c r="D81" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19" t="s">
+      <c r="E81" s="9"/>
+      <c r="F81" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="G81" s="21" t="s">
+      <c r="G81" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H81" s="19"/>
+      <c r="H81" s="9"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="7">
         <v>81</v>
       </c>
-      <c r="B82" s="22" t="s">
+      <c r="B82" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22">
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11">
         <v>4</v>
       </c>
-      <c r="F82" s="22"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="22"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="11"/>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="10">
         <v>82</v>
       </c>
-      <c r="B83" s="19" t="s">
+      <c r="B83" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C83" s="19" t="s">
+      <c r="C83" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D83" s="20" t="s">
+      <c r="D83" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E83" s="19"/>
-      <c r="F83" s="19" t="s">
+      <c r="E83" s="9"/>
+      <c r="F83" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="G83" s="21" t="s">
+      <c r="G83" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H83" s="19"/>
+      <c r="H83" s="9"/>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="7">
         <v>83</v>
       </c>
-      <c r="B84" s="22" t="s">
+      <c r="B84" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22">
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11">
         <v>4</v>
       </c>
-      <c r="F84" s="22" t="s">
+      <c r="F84" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G84" s="23" t="s">
+      <c r="G84" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H84" s="22"/>
+      <c r="H84" s="11"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="10">
@@ -4041,12 +4006,12 @@
         <v>20</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
       <c r="G85" s="11"/>
-      <c r="H85" s="18"/>
+      <c r="H85" s="16"/>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="10">
@@ -4088,7 +4053,7 @@
       <c r="G87" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H87" s="18"/>
+      <c r="H87" s="16"/>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="10">
@@ -4101,16 +4066,16 @@
         <v>20</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E88" s="9" t="s">
         <v>141</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H88" s="8"/>
     </row>
@@ -4128,7 +4093,7 @@
       </c>
       <c r="F89" s="11"/>
       <c r="G89" s="11"/>
-      <c r="H89" s="18"/>
+      <c r="H89" s="16"/>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="10">
@@ -4141,10 +4106,10 @@
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
       <c r="F90" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H90" s="8"/>
     </row>
@@ -4159,16 +4124,16 @@
         <v>20</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E91" s="11"/>
       <c r="F91" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="H91" s="18"/>
+        <v>180</v>
+      </c>
+      <c r="H91" s="16"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="7">
@@ -4181,14 +4146,14 @@
         <v>20</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E92" s="9"/>
       <c r="F92" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H92" s="8"/>
     </row>
@@ -4203,12 +4168,12 @@
         <v>20</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E93" s="11"/>
       <c r="F93" s="11"/>
       <c r="G93" s="11"/>
-      <c r="H93" s="18"/>
+      <c r="H93" s="16"/>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="7">
@@ -4220,8 +4185,8 @@
       <c r="C94" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D94" s="14" t="s">
-        <v>182</v>
+      <c r="D94" s="12" t="s">
+        <v>183</v>
       </c>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
@@ -4239,18 +4204,18 @@
         <v>20</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E95" s="11" t="s">
         <v>141</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="H95" s="18"/>
+        <v>186</v>
+      </c>
+      <c r="H95" s="16"/>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="10">
@@ -4279,12 +4244,12 @@
       <c r="D97" s="11"/>
       <c r="E97" s="11"/>
       <c r="F97" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="H97" s="18"/>
+        <v>188</v>
+      </c>
+      <c r="H97" s="16"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="10">
@@ -4297,16 +4262,16 @@
         <v>15</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H98" s="8"/>
     </row>
@@ -4321,18 +4286,18 @@
         <v>15</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G99" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="H99" s="18"/>
+        <v>196</v>
+      </c>
+      <c r="H99" s="16"/>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="10">
@@ -4374,7 +4339,7 @@
       <c r="G101" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H101" s="18"/>
+      <c r="H101" s="16"/>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="7">
@@ -4387,14 +4352,14 @@
         <v>20</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E102" s="9"/>
       <c r="F102" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H102" s="8"/>
     </row>
@@ -4411,32 +4376,32 @@
         <v>2</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="H103" s="18"/>
+        <v>201</v>
+      </c>
+      <c r="H103" s="16"/>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="7">
         <v>103</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C104" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E104" s="9"/>
       <c r="F104" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H104" s="8"/>
     </row>
@@ -4454,7 +4419,7 @@
       </c>
       <c r="F105" s="11"/>
       <c r="G105" s="11"/>
-      <c r="H105" s="18"/>
+      <c r="H105" s="16"/>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="10">
@@ -4466,17 +4431,17 @@
       <c r="C106" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D106" s="14" t="s">
-        <v>205</v>
+      <c r="D106" s="12" t="s">
+        <v>206</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H106" s="8"/>
     </row>
@@ -4490,41 +4455,41 @@
       <c r="C107" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D107" s="16" t="s">
-        <v>209</v>
+      <c r="D107" s="14" t="s">
+        <v>210</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="H107" s="18"/>
+        <v>213</v>
+      </c>
+      <c r="H107" s="16"/>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="10">
         <v>107</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C108" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D108" s="14" t="s">
-        <v>214</v>
+      <c r="D108" s="12" t="s">
+        <v>215</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H108" s="8"/>
     </row>
@@ -4538,17 +4503,17 @@
       <c r="C109" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D109" s="16" t="s">
-        <v>218</v>
+      <c r="D109" s="14" t="s">
+        <v>219</v>
       </c>
       <c r="E109" s="11"/>
       <c r="F109" s="11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="H109" s="18"/>
+        <v>221</v>
+      </c>
+      <c r="H109" s="16"/>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="10">
@@ -4558,7 +4523,7 @@
         <v>11</v>
       </c>
       <c r="C110" s="9"/>
-      <c r="D110" s="14"/>
+      <c r="D110" s="12"/>
       <c r="E110" s="9">
         <v>4</v>
       </c>
@@ -4577,16 +4542,16 @@
         <v>20</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E111" s="11"/>
       <c r="F111" s="11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="H111" s="18"/>
+        <v>224</v>
+      </c>
+      <c r="H111" s="16"/>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="7">
@@ -4608,23 +4573,23 @@
       <c r="A113" s="10">
         <v>112</v>
       </c>
-      <c r="B113" s="24" t="s">
+      <c r="B113" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C113" s="25" t="s">
+      <c r="C113" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D113" s="25" t="s">
+      <c r="D113" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E113" s="25"/>
-      <c r="F113" s="25" t="s">
+      <c r="E113" s="11"/>
+      <c r="F113" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G113" s="25" t="s">
+      <c r="G113" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H113" s="26">
+      <c r="H113" s="18">
         <v>3</v>
       </c>
     </row>
@@ -4632,307 +4597,307 @@
       <c r="A114" s="7">
         <v>113</v>
       </c>
-      <c r="B114" s="13" t="s">
+      <c r="B114" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C114" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D114" s="13" t="s">
+      <c r="C114" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D114" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E114" s="13"/>
-      <c r="F114" s="13" t="s">
+      <c r="E114" s="9"/>
+      <c r="F114" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G114" s="13" t="s">
+      <c r="G114" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H114" s="26"/>
+      <c r="H114" s="18"/>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="10">
         <v>114</v>
       </c>
-      <c r="B115" s="13" t="s">
+      <c r="B115" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C115" s="13"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="13">
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9">
         <v>5</v>
       </c>
-      <c r="F115" s="13"/>
-      <c r="G115" s="13"/>
-      <c r="H115" s="26"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="18"/>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="10">
         <v>115</v>
       </c>
-      <c r="B116" s="24" t="s">
+      <c r="B116" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C116" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D116" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="E116" s="24"/>
-      <c r="F116" s="24" t="s">
+      <c r="C116" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D116" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="G116" s="24" t="s">
+      <c r="E116" s="17"/>
+      <c r="F116" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="H116" s="24"/>
+      <c r="G116" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="H116" s="17"/>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="7">
         <v>116</v>
       </c>
-      <c r="B117" s="28" t="s">
+      <c r="B117" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C117" s="28" t="s">
+      <c r="C117" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D117" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="E117" s="28"/>
-      <c r="F117" s="28" t="s">
+      <c r="D117" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="G117" s="28" t="s">
+      <c r="E117" s="20"/>
+      <c r="F117" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="H117" s="28"/>
+      <c r="G117" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="H117" s="20"/>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="10">
         <v>117</v>
       </c>
-      <c r="B118" s="24" t="s">
+      <c r="B118" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C118" s="24"/>
-      <c r="D118" s="24"/>
-      <c r="E118" s="24">
-        <v>20</v>
-      </c>
-      <c r="F118" s="24"/>
-      <c r="G118" s="24"/>
-      <c r="H118" s="24"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17">
+        <v>20</v>
+      </c>
+      <c r="F118" s="17"/>
+      <c r="G118" s="17"/>
+      <c r="H118" s="17"/>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="7">
         <v>118</v>
       </c>
-      <c r="B119" s="28" t="s">
+      <c r="B119" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C119" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="D119" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="E119" s="28"/>
-      <c r="F119" s="28" t="s">
+      <c r="C119" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D119" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="G119" s="28" t="s">
+      <c r="E119" s="20"/>
+      <c r="F119" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="H119" s="28"/>
+      <c r="G119" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="H119" s="20"/>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="10">
         <v>119</v>
       </c>
-      <c r="B120" s="24" t="s">
+      <c r="B120" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C120" s="24" t="s">
+      <c r="C120" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D120" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="E120" s="24" t="s">
+      <c r="D120" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="F120" s="24" t="s">
+      <c r="E120" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="G120" s="24" t="s">
+      <c r="F120" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="H120" s="24"/>
+      <c r="G120" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="H120" s="17"/>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="10">
         <v>120</v>
       </c>
-      <c r="B121" s="28" t="s">
+      <c r="B121" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C121" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="D121" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="E121" s="28" t="s">
+      <c r="C121" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D121" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="F121" s="28" t="s">
+      <c r="E121" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="G121" s="28" t="s">
+      <c r="F121" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="H121" s="28"/>
+      <c r="G121" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="H121" s="20"/>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="7">
         <v>121</v>
       </c>
-      <c r="B122" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="C122" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D122" s="27" t="s">
+      <c r="B122" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="E122" s="24" t="s">
+      <c r="C122" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D122" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="F122" s="24" t="s">
+      <c r="E122" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="G122" s="24" t="s">
+      <c r="F122" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="H122" s="24"/>
+      <c r="G122" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="H122" s="17"/>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="10">
         <v>122</v>
       </c>
-      <c r="B123" s="28" t="s">
+      <c r="B123" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C123" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="D123" s="29" t="s">
+      <c r="C123" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D123" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E123" s="28"/>
-      <c r="F123" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="G123" s="28" t="s">
+      <c r="E123" s="20"/>
+      <c r="F123" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="H123" s="28"/>
+      <c r="G123" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="H123" s="20"/>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="7">
         <v>123</v>
       </c>
-      <c r="B124" s="24" t="s">
+      <c r="B124" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C124" s="24"/>
-      <c r="D124" s="24"/>
-      <c r="E124" s="24">
-        <v>20</v>
-      </c>
-      <c r="F124" s="24" t="s">
+      <c r="C124" s="17"/>
+      <c r="D124" s="17"/>
+      <c r="E124" s="17">
+        <v>20</v>
+      </c>
+      <c r="F124" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G124" s="24" t="s">
+      <c r="G124" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H124" s="24"/>
+      <c r="H124" s="17"/>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="10">
         <v>124</v>
       </c>
-      <c r="B125" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="C125" s="28"/>
-      <c r="D125" s="28"/>
-      <c r="E125" s="28"/>
-      <c r="F125" s="28"/>
-      <c r="G125" s="28"/>
-      <c r="H125" s="28"/>
+      <c r="B125" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="C125" s="20"/>
+      <c r="D125" s="20"/>
+      <c r="E125" s="20"/>
+      <c r="F125" s="20"/>
+      <c r="G125" s="20"/>
+      <c r="H125" s="20"/>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="10">
         <v>125</v>
       </c>
-      <c r="B126" s="24" t="s">
+      <c r="B126" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C126" s="24"/>
-      <c r="D126" s="24"/>
-      <c r="E126" s="24">
+      <c r="C126" s="17"/>
+      <c r="D126" s="17"/>
+      <c r="E126" s="17">
         <v>10</v>
       </c>
-      <c r="F126" s="24" t="s">
+      <c r="F126" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G126" s="24" t="s">
+      <c r="G126" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H126" s="24"/>
+      <c r="H126" s="17"/>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="7">
         <v>126</v>
       </c>
-      <c r="B127" s="28" t="s">
+      <c r="B127" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C127" s="29" t="s">
+      <c r="C127" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D127" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="E127" s="28"/>
-      <c r="F127" s="28" t="s">
+      <c r="D127" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="G127" s="28" t="s">
+      <c r="E127" s="20"/>
+      <c r="F127" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="H127" s="28"/>
+      <c r="G127" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="H127" s="20"/>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="10">
         <v>127</v>
       </c>
-      <c r="B128" s="24" t="s">
+      <c r="B128" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C128" s="24"/>
-      <c r="D128" s="24"/>
-      <c r="E128" s="24">
+      <c r="C128" s="17"/>
+      <c r="D128" s="17"/>
+      <c r="E128" s="17">
         <v>5</v>
       </c>
-      <c r="F128" s="24"/>
-      <c r="G128" s="24"/>
-      <c r="H128" s="24"/>
+      <c r="F128" s="17"/>
+      <c r="G128" s="17"/>
+      <c r="H128" s="17"/>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="7">
@@ -4944,15 +4909,15 @@
       <c r="C129" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D129" s="16" t="s">
-        <v>237</v>
+      <c r="D129" s="14" t="s">
+        <v>238</v>
       </c>
       <c r="E129" s="11"/>
       <c r="F129" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H129" s="11"/>
     </row>
@@ -4973,8 +4938,8 @@
       <c r="H130" s="9"/>
     </row>
   </sheetData>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 C15 B30 B46 B47 B48 B57 B58 B59 B60 B68 B71 B72 B73 B74 B75 B78 B95 B96 B105 B106 B107 B108 B109 B110 B14:B20 B21:B29 B31:B39 B40:B45 B53:B56 B65:B67 B69:B70 B76:B77 B79:B80 B85:B92 B93:B94 B97:B101 B102:B103 C2:C3">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 C15 B30 B46 B47 B48 B57 B58 B59 B60 B68 B71 B72 B73 B74 B75 B78 B95 B96 B105 B106 B107 B108 B109 B110 B111 B112 B14:B20 B21:B29 B31:B39 B40:B45 B53:B56 B65:B67 B69:B70 B76:B77 B79:B80 B85:B92 B93:B94 B97:B101 B102:B103 B129:B130 C2:C3">
       <formula1>[6]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
@@ -4994,9 +4959,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C79">
       <formula1>[4]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B111 B112 B129:B130">
-      <formula1>[6]DataList!#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5026,7 +4988,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5034,20 +4996,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5058,20 +5020,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -5079,47 +5041,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -5129,12 +5091,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -5144,55 +5106,55 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -5202,152 +5164,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -5357,209 +5319,209 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="99" spans="3:3">
@@ -5569,12 +5531,12 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="102" spans="3:3">

--- a/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Save_Back_Front_Navi.xlsx
+++ b/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Save_Back_Front_Navi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27465" windowHeight="13650"/>
+    <workbookView windowWidth="27465" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
     <t>FIRST_NAME_FIELD</t>
   </si>
   <si>
-    <t>_Fname</t>
+    <t>Fname</t>
   </si>
   <si>
     <t>Enter First name</t>
@@ -123,7 +123,7 @@
     <t>LAST_NAME_FIELD</t>
   </si>
   <si>
-    <t>_Lname</t>
+    <t>Lname</t>
   </si>
   <si>
     <t>Enter last name</t>
@@ -1061,10 +1061,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1103,6 +1103,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1118,10 +1125,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1130,73 +1137,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1217,16 +1157,60 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1240,7 +1224,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1273,7 +1273,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1285,37 +1321,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1327,19 +1339,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1351,37 +1351,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1399,7 +1369,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1411,49 +1447,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1526,6 +1526,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1537,17 +1552,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1585,6 +1589,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1593,37 +1606,24 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1635,130 +1635,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2214,8 +2214,8 @@
   <sheetPr/>
   <dimension ref="A1:H130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3621,7 +3621,7 @@
       <c r="C66" s="9"/>
       <c r="D66" s="12"/>
       <c r="E66" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
@@ -4227,7 +4227,7 @@
       <c r="C96" s="9"/>
       <c r="D96" s="9"/>
       <c r="E96" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>

--- a/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Save_Back_Front_Navi.xlsx
+++ b/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Save_Back_Front_Navi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27465" windowHeight="13230"/>
+    <workbookView windowWidth="28680" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328">
   <si>
     <t>Step No</t>
   </si>
@@ -583,45 +583,6 @@
   </si>
   <si>
     <t>LLS_T_SETTING</t>
-  </si>
-  <si>
-    <t>MEDICATION_NAME</t>
-  </si>
-  <si>
-    <t>Type Medication name</t>
-  </si>
-  <si>
-    <t>Medication name entered</t>
-  </si>
-  <si>
-    <t>Select Medication name</t>
-  </si>
-  <si>
-    <t>Medication name selected</t>
-  </si>
-  <si>
-    <t>DOSAGE</t>
-  </si>
-  <si>
-    <t>TestDosage</t>
-  </si>
-  <si>
-    <t>Enter Dosage</t>
-  </si>
-  <si>
-    <t>Dosage entered</t>
-  </si>
-  <si>
-    <t>FREQUENCY</t>
-  </si>
-  <si>
-    <t>Daily</t>
-  </si>
-  <si>
-    <t>Enter frequency</t>
-  </si>
-  <si>
-    <t>Frequency entered</t>
   </si>
   <si>
     <t>AGREE_SUBMIT_BUTTON</t>
@@ -1061,10 +1022,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1103,14 +1064,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1124,9 +1099,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1140,9 +1130,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1157,7 +1162,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1172,14 +1177,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1187,44 +1185,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1240,7 +1201,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1273,7 +1234,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1285,13 +1336,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1303,67 +1360,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1375,7 +1372,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1387,7 +1384,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1399,61 +1414,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1520,23 +1481,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1552,6 +1507,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1588,24 +1552,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1614,16 +1560,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1635,130 +1596,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2212,10 +2173,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H130"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93:A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -4176,7 +4137,7 @@
       <c r="H93" s="16"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="7">
+      <c r="A94" s="10">
         <v>93</v>
       </c>
       <c r="B94" s="9" t="s">
@@ -4197,323 +4158,317 @@
       <c r="A95" s="10">
         <v>94</v>
       </c>
-      <c r="B95" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C95" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="E95" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="F95" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="G95" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="H95" s="16"/>
+      <c r="B95" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H95" s="8"/>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="10">
         <v>95</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9">
-        <v>5</v>
-      </c>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="8"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11">
+        <v>4</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H96" s="16"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="7">
+      <c r="A97" s="10">
         <v>96</v>
       </c>
-      <c r="B97" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="G97" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="H97" s="16"/>
+      <c r="B97" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="H97" s="8"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="10">
         <v>97</v>
       </c>
-      <c r="B98" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D98" s="9" t="s">
+      <c r="B98" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11">
+        <v>2</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="G98" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="H98" s="16"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="10">
+        <v>98</v>
+      </c>
+      <c r="B99" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="E98" s="9" t="s">
+      <c r="C99" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D99" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="F98" s="9" t="s">
+      <c r="E99" s="9"/>
+      <c r="F99" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="G98" s="9" t="s">
+      <c r="G99" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="H98" s="8"/>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" s="7">
-        <v>98</v>
-      </c>
-      <c r="B99" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C99" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="E99" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="F99" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="G99" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="H99" s="16"/>
+      <c r="H99" s="8"/>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="10">
         <v>99</v>
       </c>
-      <c r="B100" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G100" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="H100" s="8"/>
+      <c r="B100" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11">
+        <v>2</v>
+      </c>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="16"/>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="10">
         <v>100</v>
       </c>
-      <c r="B101" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="11">
-        <v>4</v>
-      </c>
-      <c r="F101" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G101" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H101" s="16"/>
+      <c r="B101" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H101" s="8"/>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="7">
+      <c r="A102" s="10">
         <v>101</v>
       </c>
-      <c r="B102" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D102" s="9" t="s">
+      <c r="B102" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D102" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9" t="s">
+      <c r="E102" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="G102" s="9" t="s">
+      <c r="F102" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="H102" s="8"/>
+      <c r="G102" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="H102" s="16"/>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="10">
         <v>102</v>
       </c>
-      <c r="B103" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11">
-        <v>2</v>
-      </c>
-      <c r="F103" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="G103" s="11" t="s">
+      <c r="B103" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="H103" s="16"/>
+      <c r="C103" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="H103" s="8"/>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="7">
+      <c r="A104" s="10">
         <v>103</v>
       </c>
-      <c r="B104" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="G104" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="H104" s="8"/>
+      <c r="B104" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="G104" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="H104" s="16"/>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="10">
         <v>104</v>
       </c>
-      <c r="B105" s="11" t="s">
+      <c r="B105" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11">
-        <v>2</v>
-      </c>
-      <c r="F105" s="11"/>
-      <c r="G105" s="11"/>
-      <c r="H105" s="16"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="9">
+        <v>4</v>
+      </c>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="8"/>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="10">
         <v>105</v>
       </c>
-      <c r="B106" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D106" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="E106" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="F106" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="G106" s="9" t="s">
+      <c r="B106" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D106" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="H106" s="8"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="G106" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="H106" s="16"/>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="7">
+      <c r="A107" s="10">
         <v>106</v>
       </c>
-      <c r="B107" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D107" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="E107" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="F107" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="G107" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="H107" s="16"/>
+      <c r="B107" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9">
+        <v>5</v>
+      </c>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="8"/>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="10">
         <v>107</v>
       </c>
-      <c r="B108" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D108" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="F108" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="G108" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="H108" s="8"/>
+      <c r="B108" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G108" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H108" s="18">
+        <v>3</v>
+      </c>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="7">
+      <c r="A109" s="10">
         <v>108</v>
       </c>
-      <c r="B109" s="11" t="s">
+      <c r="B109" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C109" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D109" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="E109" s="11"/>
-      <c r="F109" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="G109" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="H109" s="16"/>
+      <c r="C109" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H109" s="18"/>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="10">
@@ -4523,429 +4478,329 @@
         <v>11</v>
       </c>
       <c r="C110" s="9"/>
-      <c r="D110" s="12"/>
+      <c r="D110" s="9"/>
       <c r="E110" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F110" s="9"/>
       <c r="G110" s="9"/>
-      <c r="H110" s="8"/>
+      <c r="H110" s="18"/>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="10">
         <v>110</v>
       </c>
-      <c r="B111" s="11" t="s">
+      <c r="B111" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C111" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D111" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="E111" s="11"/>
-      <c r="F111" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="G111" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="H111" s="16"/>
+      <c r="C111" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D111" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="E111" s="17"/>
+      <c r="F111" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="G111" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="H111" s="17"/>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="7">
+      <c r="A112" s="10">
         <v>111</v>
       </c>
-      <c r="B112" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9">
-        <v>5</v>
-      </c>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="8"/>
+      <c r="B112" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="E112" s="20"/>
+      <c r="F112" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="G112" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="H112" s="20"/>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="10">
         <v>112</v>
       </c>
       <c r="B113" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C113" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D113" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E113" s="11"/>
-      <c r="F113" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G113" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H113" s="18">
-        <v>3</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C113" s="17"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17">
+        <v>20</v>
+      </c>
+      <c r="F113" s="17"/>
+      <c r="G113" s="17"/>
+      <c r="H113" s="17"/>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="7">
+      <c r="A114" s="10">
         <v>113</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C114" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G114" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H114" s="18"/>
+      <c r="C114" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D114" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="E114" s="20"/>
+      <c r="F114" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="G114" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="H114" s="20"/>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="10">
         <v>114</v>
       </c>
-      <c r="B115" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9">
-        <v>5</v>
-      </c>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="18"/>
+      <c r="B115" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="E115" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="F115" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="G115" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="H115" s="17"/>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="10">
         <v>115</v>
       </c>
-      <c r="B116" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C116" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D116" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="E116" s="17"/>
-      <c r="F116" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="G116" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="H116" s="17"/>
+      <c r="B116" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C116" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D116" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="E116" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="F116" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G116" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="H116" s="20"/>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="7">
+      <c r="A117" s="10">
         <v>116</v>
       </c>
-      <c r="B117" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C117" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D117" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="E117" s="20"/>
-      <c r="F117" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="G117" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="H117" s="20"/>
+      <c r="B117" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C117" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D117" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="E117" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="F117" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="G117" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="H117" s="17"/>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="10">
         <v>117</v>
       </c>
-      <c r="B118" s="17" t="s">
+      <c r="B118" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C118" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D118" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E118" s="20"/>
+      <c r="F118" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="G118" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="H118" s="20"/>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="10">
+        <v>118</v>
+      </c>
+      <c r="B119" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C118" s="17"/>
-      <c r="D118" s="17"/>
-      <c r="E118" s="17">
-        <v>20</v>
-      </c>
-      <c r="F118" s="17"/>
-      <c r="G118" s="17"/>
-      <c r="H118" s="17"/>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" s="7">
-        <v>118</v>
-      </c>
-      <c r="B119" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C119" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D119" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="E119" s="20"/>
-      <c r="F119" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="G119" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="H119" s="20"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="17">
+        <v>20</v>
+      </c>
+      <c r="F119" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H119" s="17"/>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="10">
         <v>119</v>
       </c>
-      <c r="B120" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C120" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D120" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="E120" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="F120" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="G120" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="H120" s="17"/>
+      <c r="B120" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="C120" s="20"/>
+      <c r="D120" s="20"/>
+      <c r="E120" s="20"/>
+      <c r="F120" s="20"/>
+      <c r="G120" s="20"/>
+      <c r="H120" s="20"/>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="10">
         <v>120</v>
       </c>
-      <c r="B121" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C121" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D121" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="E121" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="F121" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="G121" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="H121" s="20"/>
+      <c r="B121" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" s="17"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="17">
+        <v>10</v>
+      </c>
+      <c r="F121" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G121" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H121" s="17"/>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="7">
+      <c r="A122" s="10">
         <v>121</v>
       </c>
-      <c r="B122" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="C122" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D122" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="E122" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="F122" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="G122" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="H122" s="17"/>
+      <c r="B122" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C122" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="E122" s="20"/>
+      <c r="F122" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="G122" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="H122" s="20"/>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="10">
         <v>122</v>
       </c>
-      <c r="B123" s="20" t="s">
+      <c r="B123" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" s="17"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="17">
+        <v>5</v>
+      </c>
+      <c r="F123" s="17"/>
+      <c r="G123" s="17"/>
+      <c r="H123" s="17"/>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="10">
+        <v>123</v>
+      </c>
+      <c r="B124" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C123" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D123" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E123" s="20"/>
-      <c r="F123" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="G123" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="H123" s="20"/>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" s="7">
-        <v>123</v>
-      </c>
-      <c r="B124" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C124" s="17"/>
-      <c r="D124" s="17"/>
-      <c r="E124" s="17">
-        <v>20</v>
-      </c>
-      <c r="F124" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G124" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H124" s="17"/>
+      <c r="C124" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D124" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E124" s="11"/>
+      <c r="F124" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="G124" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="H124" s="11"/>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="10">
         <v>124</v>
       </c>
-      <c r="B125" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="C125" s="20"/>
-      <c r="D125" s="20"/>
-      <c r="E125" s="20"/>
-      <c r="F125" s="20"/>
-      <c r="G125" s="20"/>
-      <c r="H125" s="20"/>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" s="10">
-        <v>125</v>
-      </c>
-      <c r="B126" s="17" t="s">
+      <c r="B125" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C126" s="17"/>
-      <c r="D126" s="17"/>
-      <c r="E126" s="17">
-        <v>10</v>
-      </c>
-      <c r="F126" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G126" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H126" s="17"/>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" s="7">
-        <v>126</v>
-      </c>
-      <c r="B127" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C127" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D127" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="E127" s="20"/>
-      <c r="F127" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="G127" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="H127" s="20"/>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" s="10">
-        <v>127</v>
-      </c>
-      <c r="B128" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C128" s="17"/>
-      <c r="D128" s="17"/>
-      <c r="E128" s="17">
-        <v>5</v>
-      </c>
-      <c r="F128" s="17"/>
-      <c r="G128" s="17"/>
-      <c r="H128" s="17"/>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="A129" s="7">
-        <v>128</v>
-      </c>
-      <c r="B129" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C129" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D129" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="E129" s="11"/>
-      <c r="F129" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="G129" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="H129" s="11"/>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" s="10">
-        <v>129</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9">
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9">
         <v>4</v>
       </c>
-      <c r="F130" s="9"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 C15 B30 B46 B47 B48 B57 B58 B59 B60 B68 B71 B72 B73 B74 B75 B78 B95 B96 B105 B106 B107 B108 B109 B110 B111 B112 B14:B20 B21:B29 B31:B39 B40:B45 B53:B56 B65:B67 B69:B70 B76:B77 B79:B80 B85:B92 B93:B94 B97:B101 B102:B103 B129:B130 C2:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 C15 B30 B46 B47 B48 B57 B58 B59 B60 B68 B71 B72 B73 B74 B75 B78 B100 B101 B102 B103 B104 B105 B106 B107 B14:B20 B21:B29 B31:B39 B40:B45 B53:B56 B65:B67 B69:B70 B76:B77 B79:B80 B85:B92 B93:B94 B95:B96 B97:B98 B124:B125 C2:C3">
       <formula1>[6]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>[1]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 B13 C13 C113 B114 C114 B115 C115 B4:B12 C7:C9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 B13 C13 C108 B109 C109 B110 C110 B4:B12 C7:C9">
       <formula1>[5]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14 C16:C20 C21:C25">
@@ -4954,7 +4809,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30 C44 C47 C51 C59 C63 C83 C86 C26:C29 C31:C33">
       <formula1>[3]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B49 B50 B61 B62 B81 B82 B113 B51:B52 B63:B64 B83:B84 B116:B128">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B49 B50 B61 B62 B81 B82 B108 B51:B52 B63:B64 B83:B84 B111:B123">
       <formula1/>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C79">
@@ -4988,7 +4843,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4996,20 +4851,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C3" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5020,20 +4875,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C6" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -5041,47 +4896,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C8" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C10" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="C11" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -5091,12 +4946,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -5106,55 +4961,55 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -5164,152 +5019,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -5319,209 +5174,209 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
     </row>
     <row r="99" spans="3:3">
@@ -5531,12 +5386,12 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="102" spans="3:3">

--- a/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Save_Back_Front_Navi.xlsx
+++ b/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Save_Back_Front_Navi.xlsx
@@ -1027,7 +1027,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1053,14 +1053,10 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1070,22 +1066,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1100,17 +1083,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1124,7 +1130,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1132,45 +1138,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1191,23 +1159,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1222,19 +1211,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799951170384838"/>
         <bgColor theme="4" tint="0.799951170384838"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1246,7 +1337,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1264,73 +1373,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1342,79 +1391,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1481,15 +1464,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1514,8 +1488,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1550,17 +1524,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1575,10 +1538,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1596,134 +1579,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1731,21 +1714,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2175,8 +2145,8 @@
   <sheetPr/>
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93:A125"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2222,2575 +2192,2575 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="10">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8">
         <v>5</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="11"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="10">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="11"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7">
         <v>3</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="10">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="11"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="10">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="11"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="10">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8">
         <v>4</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="11"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="C12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9" t="s">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="9"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="10">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8">
         <v>4</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="11"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="12" t="s">
+      <c r="C14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="10">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8">
         <v>5</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="10">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="9"/>
+      <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="7">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8">
         <v>2</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="10">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="7">
         <v>2</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H18" s="9"/>
+      <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="7">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="14" t="s">
+      <c r="C19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="8">
         <v>1000</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H19" s="11"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="10">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="12" t="s">
+      <c r="C20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9" t="s">
+      <c r="E20" s="7"/>
+      <c r="F20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="9"/>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="10">
-        <v>20</v>
-      </c>
-      <c r="B21" s="11" t="s">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="14" t="s">
+      <c r="C21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11" t="s">
+      <c r="E21" s="8"/>
+      <c r="F21" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="11"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="7">
         <v>10001</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H22" s="9"/>
+      <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="10">
+      <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="11" t="s">
+      <c r="C23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11" t="s">
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H23" s="11"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7">
         <v>5</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="9"/>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="10">
+      <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="10">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="12" t="s">
+      <c r="C26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H26" s="9"/>
+      <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="7">
+      <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="14" t="s">
+      <c r="C27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="H27" s="11"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="10">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="12" t="s">
+      <c r="C28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H28" s="9"/>
+      <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="7">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="14" t="s">
+      <c r="C29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="H29" s="11"/>
+      <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="10">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="12" t="s">
+      <c r="C30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H30" s="9"/>
+      <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="10">
+      <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="11" t="s">
+      <c r="C31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="9" t="s">
+      <c r="C32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9" t="s">
+      <c r="E32" s="7"/>
+      <c r="F32" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H32" s="9"/>
+      <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="10">
+      <c r="A33" s="8">
         <v>32</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11" t="s">
+      <c r="E33" s="8"/>
+      <c r="F33" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H33" s="11"/>
+      <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9">
-        <v>5</v>
-      </c>
-      <c r="F34" s="9" t="s">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7">
+        <v>10</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="9"/>
+      <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="10">
+      <c r="A35" s="8">
         <v>34</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="11" t="s">
+      <c r="C35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="H35" s="16"/>
+      <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="10">
+      <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9" t="s">
+      <c r="E36" s="7"/>
+      <c r="F36" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H36" s="8"/>
+      <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="7">
+      <c r="A37" s="8">
         <v>36</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11" t="s">
+      <c r="E37" s="8"/>
+      <c r="F37" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="G37" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="H37" s="16"/>
+      <c r="H37" s="8"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="10">
+      <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="9" t="s">
+      <c r="C38" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="H38" s="8"/>
+      <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="7">
+      <c r="A39" s="8">
         <v>38</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="F39" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="G39" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="H39" s="16"/>
+      <c r="H39" s="8"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="10">
+      <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H40" s="8"/>
+      <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="10">
+      <c r="A41" s="8">
         <v>40</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="11" t="s">
+      <c r="C41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="16"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="7">
         <v>9876543210</v>
       </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="8"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="10">
+      <c r="A43" s="8">
         <v>42</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" s="11" t="s">
+      <c r="C43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="16"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9" t="s">
+      <c r="E44" s="7"/>
+      <c r="F44" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="G44" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H44" s="8"/>
+      <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="10">
+      <c r="A45" s="8">
         <v>44</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11">
-        <v>4</v>
-      </c>
-      <c r="F45" s="11" t="s">
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8">
+        <v>10</v>
+      </c>
+      <c r="F45" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G45" s="11" t="s">
+      <c r="G45" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H45" s="16"/>
+      <c r="H45" s="8"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="10">
+      <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" s="12" t="s">
+      <c r="C46" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="8"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="7">
+      <c r="A47" s="8">
         <v>46</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11" t="s">
+      <c r="E47" s="8"/>
+      <c r="F47" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G47" s="11" t="s">
+      <c r="G47" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H47" s="16"/>
+      <c r="H47" s="8"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="10">
+      <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9">
-        <v>4</v>
-      </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="8"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7">
+        <v>10</v>
+      </c>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="7">
+      <c r="A49" s="8">
         <v>48</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9" t="s">
+      <c r="E49" s="8"/>
+      <c r="F49" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="G49" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="H49" s="9"/>
+      <c r="H49" s="8"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="10">
+      <c r="A50" s="7">
         <v>49</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11">
-        <v>4</v>
-      </c>
-      <c r="F50" s="11"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="11"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7">
+        <v>5</v>
+      </c>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="10">
+      <c r="A51" s="8">
         <v>50</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D51" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9" t="s">
+      <c r="E51" s="8"/>
+      <c r="F51" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G51" s="7" t="s">
+      <c r="G51" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H51" s="9"/>
+      <c r="H51" s="8"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="7">
         <v>51</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11">
-        <v>4</v>
-      </c>
-      <c r="F52" s="11" t="s">
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7">
+        <v>10</v>
+      </c>
+      <c r="F52" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G52" s="10" t="s">
+      <c r="G52" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H52" s="11"/>
+      <c r="H52" s="7"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="10">
+      <c r="A53" s="8">
         <v>52</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D53" s="11" t="s">
+      <c r="C53" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11" t="s">
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="H53" s="16"/>
+      <c r="H53" s="8"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="7">
         <v>53</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E54" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F54" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G54" s="9" t="s">
+      <c r="G54" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H54" s="8"/>
+      <c r="H54" s="7"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="10">
+      <c r="A55" s="8">
         <v>54</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F55" s="11" t="s">
+      <c r="F55" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="G55" s="11" t="s">
+      <c r="G55" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H55" s="16"/>
+      <c r="H55" s="8"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="10">
+      <c r="A56" s="7">
         <v>55</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C56" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D56" s="9" t="s">
+      <c r="C56" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="E56" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="F56" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="G56" s="9" t="s">
+      <c r="G56" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="H56" s="8"/>
+      <c r="H56" s="7"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="7">
+      <c r="A57" s="8">
         <v>56</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D57" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11" t="s">
+      <c r="E57" s="8"/>
+      <c r="F57" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="G57" s="11" t="s">
+      <c r="G57" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="H57" s="16"/>
+      <c r="H57" s="8"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="10">
+      <c r="A58" s="7">
         <v>57</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C58" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D58" s="12" t="s">
+      <c r="C58" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E58" s="13" t="s">
+      <c r="E58" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="8"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="7">
+      <c r="A59" s="8">
         <v>58</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11" t="s">
+      <c r="E59" s="8"/>
+      <c r="F59" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G59" s="11" t="s">
+      <c r="G59" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H59" s="16"/>
+      <c r="H59" s="8"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="10">
+      <c r="A60" s="7">
         <v>59</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9">
-        <v>4</v>
-      </c>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="8"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7">
+        <v>10</v>
+      </c>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="10">
+      <c r="A61" s="8">
         <v>60</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="D61" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9" t="s">
+      <c r="E61" s="8"/>
+      <c r="F61" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="G61" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="H61" s="9"/>
+      <c r="H61" s="8"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11">
-        <v>4</v>
-      </c>
-      <c r="F62" s="11"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="11"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7">
+        <v>10</v>
+      </c>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="10">
+      <c r="A63" s="8">
         <v>62</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="D63" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9" t="s">
+      <c r="E63" s="8"/>
+      <c r="F63" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="G63" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H63" s="9"/>
+      <c r="H63" s="8"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="7">
         <v>63</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11">
-        <v>4</v>
-      </c>
-      <c r="F64" s="11" t="s">
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7">
+        <v>10</v>
+      </c>
+      <c r="F64" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G64" s="10" t="s">
+      <c r="G64" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H64" s="11"/>
+      <c r="H64" s="7"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="10">
+      <c r="A65" s="8">
         <v>64</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C65" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D65" s="14" t="s">
+      <c r="C65" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E65" s="11" t="s">
+      <c r="E65" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="F65" s="11" t="s">
+      <c r="F65" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="G65" s="11" t="s">
+      <c r="G65" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="H65" s="16"/>
+      <c r="H65" s="8"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="10">
+      <c r="A66" s="7">
         <v>65</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="9">
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7">
         <v>5</v>
       </c>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="8"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="7">
+      <c r="A67" s="8">
         <v>66</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C67" s="11"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11" t="s">
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="G67" s="11" t="s">
+      <c r="G67" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="H67" s="16"/>
+      <c r="H67" s="8"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="10">
+      <c r="A68" s="7">
         <v>67</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C68" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D68" s="12" t="s">
+      <c r="C68" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="E68" s="9" t="s">
+      <c r="E68" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F68" s="9" t="s">
+      <c r="F68" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G68" s="9" t="s">
+      <c r="G68" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H68" s="8"/>
+      <c r="H68" s="7"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="7">
+      <c r="A69" s="8">
         <v>68</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C69" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D69" s="14" t="s">
+      <c r="C69" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="F69" s="11" t="s">
+      <c r="F69" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="G69" s="11" t="s">
+      <c r="G69" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="H69" s="16"/>
+      <c r="H69" s="8"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="10">
+      <c r="A70" s="7">
         <v>69</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="12" t="s">
+      <c r="D70" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9" t="s">
+      <c r="E70" s="7"/>
+      <c r="F70" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G70" s="9" t="s">
+      <c r="G70" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H70" s="8"/>
+      <c r="H70" s="7"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="10">
+      <c r="A71" s="8">
         <v>70</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="14" t="s">
+      <c r="D71" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11" t="s">
+      <c r="E71" s="8"/>
+      <c r="F71" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G71" s="11" t="s">
+      <c r="G71" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="H71" s="16"/>
+      <c r="H71" s="8"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="7">
         <v>71</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C72" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D72" s="12" t="s">
+      <c r="C72" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E72" s="9" t="s">
+      <c r="E72" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="8"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="10">
+      <c r="A73" s="8">
         <v>72</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C73" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D73" s="14" t="s">
+      <c r="C73" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="16"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="7">
         <v>73</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C74" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D74" s="12" t="s">
+      <c r="C74" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="8"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="10">
+      <c r="A75" s="8">
         <v>74</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B75" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C75" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D75" s="14" t="s">
+      <c r="C75" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11" t="s">
+      <c r="E75" s="8"/>
+      <c r="F75" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="G75" s="11" t="s">
+      <c r="G75" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="H75" s="16"/>
+      <c r="H75" s="8"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="10">
+      <c r="A76" s="7">
         <v>75</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C76" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D76" s="12" t="s">
+      <c r="C76" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="8"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="7">
+      <c r="A77" s="8">
         <v>76</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="B77" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D77" s="14" t="s">
+      <c r="C77" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="16"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="10">
+      <c r="A78" s="7">
         <v>77</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D78" s="12" t="s">
+      <c r="C78" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9" t="s">
+      <c r="E78" s="7"/>
+      <c r="F78" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G78" s="9" t="s">
+      <c r="G78" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="H78" s="8"/>
+      <c r="H78" s="7"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="7">
+      <c r="A79" s="8">
         <v>78</v>
       </c>
-      <c r="B79" s="11" t="s">
+      <c r="B79" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C79" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D79" s="14" t="s">
+      <c r="D79" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11" t="s">
+      <c r="E79" s="8"/>
+      <c r="F79" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G79" s="11" t="s">
+      <c r="G79" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H79" s="16"/>
+      <c r="H79" s="8"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="10">
+      <c r="A80" s="7">
         <v>79</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9">
-        <v>4</v>
-      </c>
-      <c r="F80" s="9" t="s">
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7">
+        <v>10</v>
+      </c>
+      <c r="F80" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G80" s="9" t="s">
+      <c r="G80" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H80" s="8"/>
+      <c r="H80" s="7"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="10">
+      <c r="A81" s="8">
         <v>80</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C81" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D81" s="12" t="s">
+      <c r="D81" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9" t="s">
+      <c r="E81" s="8"/>
+      <c r="F81" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="G81" s="7" t="s">
+      <c r="G81" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="H81" s="9"/>
+      <c r="H81" s="8"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="7">
         <v>81</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11">
-        <v>4</v>
-      </c>
-      <c r="F82" s="11"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="11"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7">
+        <v>5</v>
+      </c>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="10">
+      <c r="A83" s="8">
         <v>82</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C83" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D83" s="12" t="s">
+      <c r="D83" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9" t="s">
+      <c r="E83" s="8"/>
+      <c r="F83" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G83" s="7" t="s">
+      <c r="G83" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H83" s="9"/>
+      <c r="H83" s="8"/>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="7">
         <v>83</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="B84" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11">
-        <v>4</v>
-      </c>
-      <c r="F84" s="11" t="s">
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7">
+        <v>10</v>
+      </c>
+      <c r="F84" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G84" s="10" t="s">
+      <c r="G84" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H84" s="11"/>
+      <c r="H84" s="7"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="10">
+      <c r="A85" s="8">
         <v>84</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="B85" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C85" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D85" s="11" t="s">
+      <c r="C85" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="16"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="10">
+      <c r="A86" s="7">
         <v>85</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C86" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D86" s="9" t="s">
+      <c r="D86" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9" t="s">
+      <c r="E86" s="7"/>
+      <c r="F86" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G86" s="9" t="s">
+      <c r="G86" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H86" s="8"/>
+      <c r="H86" s="7"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="7">
+      <c r="A87" s="8">
         <v>86</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="B87" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11">
-        <v>4</v>
-      </c>
-      <c r="F87" s="11" t="s">
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8">
+        <v>10</v>
+      </c>
+      <c r="F87" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G87" s="11" t="s">
+      <c r="G87" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H87" s="16"/>
+      <c r="H87" s="8"/>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="10">
+      <c r="A88" s="7">
         <v>87</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C88" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D88" s="9" t="s">
+      <c r="C88" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E88" s="9" t="s">
+      <c r="E88" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F88" s="9" t="s">
+      <c r="F88" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="G88" s="9" t="s">
+      <c r="G88" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H88" s="8"/>
+      <c r="H88" s="7"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="7">
+      <c r="A89" s="8">
         <v>88</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="B89" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11">
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8">
         <v>5</v>
       </c>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="16"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="10">
+      <c r="A90" s="7">
         <v>89</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9" t="s">
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="G90" s="9" t="s">
+      <c r="G90" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="H90" s="8"/>
+      <c r="H90" s="7"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="10">
+      <c r="A91" s="8">
         <v>90</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="B91" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C91" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D91" s="11" t="s">
+      <c r="C91" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11" t="s">
+      <c r="E91" s="8"/>
+      <c r="F91" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="G91" s="11" t="s">
+      <c r="G91" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="H91" s="16"/>
+      <c r="H91" s="8"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="7">
         <v>91</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C92" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D92" s="9" t="s">
+      <c r="C92" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9" t="s">
+      <c r="E92" s="7"/>
+      <c r="F92" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="G92" s="9" t="s">
+      <c r="G92" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="H92" s="8"/>
+      <c r="H92" s="7"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="10">
+      <c r="A93" s="8">
         <v>92</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="B93" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C93" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D93" s="11" t="s">
+      <c r="C93" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D93" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
-      <c r="H93" s="16"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="10">
+      <c r="A94" s="7">
         <v>93</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C94" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D94" s="12" t="s">
+      <c r="C94" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="8"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="10">
+      <c r="A95" s="8">
         <v>94</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="C95" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D95" s="9" t="s">
+      <c r="D95" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9" t="s">
+      <c r="E95" s="8"/>
+      <c r="F95" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G95" s="9" t="s">
+      <c r="G95" s="8" t="s">
         <v>90</v>
       </c>
       <c r="H95" s="8"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="10">
+      <c r="A96" s="7">
         <v>95</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="B96" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11">
-        <v>4</v>
-      </c>
-      <c r="F96" s="11" t="s">
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7">
+        <v>10</v>
+      </c>
+      <c r="F96" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G96" s="11" t="s">
+      <c r="G96" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H96" s="16"/>
+      <c r="H96" s="7"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="10">
+      <c r="A97" s="8">
         <v>96</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C97" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D97" s="9" t="s">
+      <c r="C97" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9" t="s">
+      <c r="E97" s="8"/>
+      <c r="F97" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="G97" s="9" t="s">
+      <c r="G97" s="8" t="s">
         <v>186</v>
       </c>
       <c r="H97" s="8"/>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="10">
+      <c r="A98" s="7">
         <v>97</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="B98" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11">
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7">
         <v>2</v>
       </c>
-      <c r="F98" s="11" t="s">
+      <c r="F98" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="G98" s="11" t="s">
+      <c r="G98" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="H98" s="16"/>
+      <c r="H98" s="7"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="10">
+      <c r="A99" s="8">
         <v>98</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C99" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D99" s="9" t="s">
+      <c r="C99" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D99" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9" t="s">
+      <c r="E99" s="8"/>
+      <c r="F99" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="G99" s="9" t="s">
+      <c r="G99" s="8" t="s">
         <v>192</v>
       </c>
       <c r="H99" s="8"/>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="10">
+      <c r="A100" s="7">
         <v>99</v>
       </c>
-      <c r="B100" s="11" t="s">
+      <c r="B100" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11">
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7">
         <v>2</v>
       </c>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="16"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="10">
+      <c r="A101" s="8">
         <v>100</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C101" s="9" t="s">
+      <c r="C101" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D101" s="12" t="s">
+      <c r="D101" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="E101" s="9" t="s">
+      <c r="E101" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="F101" s="9" t="s">
+      <c r="F101" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="G101" s="9" t="s">
+      <c r="G101" s="8" t="s">
         <v>196</v>
       </c>
       <c r="H101" s="8"/>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="10">
+      <c r="A102" s="7">
         <v>101</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="B102" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C102" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D102" s="14" t="s">
+      <c r="C102" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D102" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="E102" s="11" t="s">
+      <c r="E102" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F102" s="11" t="s">
+      <c r="F102" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="G102" s="11" t="s">
+      <c r="G102" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="H102" s="16"/>
+      <c r="H102" s="7"/>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="10">
+      <c r="A103" s="8">
         <v>102</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="C103" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D103" s="12" t="s">
+      <c r="C103" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D103" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E103" s="9" t="s">
+      <c r="E103" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F103" s="9" t="s">
+      <c r="F103" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="G103" s="9" t="s">
+      <c r="G103" s="8" t="s">
         <v>205</v>
       </c>
       <c r="H103" s="8"/>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="10">
+      <c r="A104" s="7">
         <v>103</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="B104" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C104" s="11" t="s">
+      <c r="C104" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D104" s="14" t="s">
+      <c r="D104" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="E104" s="11"/>
-      <c r="F104" s="11" t="s">
+      <c r="E104" s="7"/>
+      <c r="F104" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="G104" s="11" t="s">
+      <c r="G104" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="H104" s="16"/>
+      <c r="H104" s="7"/>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="10">
+      <c r="A105" s="8">
         <v>104</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C105" s="9"/>
-      <c r="D105" s="12"/>
-      <c r="E105" s="9">
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8">
+        <v>5</v>
+      </c>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="7">
+        <v>105</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H106" s="7"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="8">
+        <v>106</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8">
+        <v>5</v>
+      </c>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="8"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="7">
+        <v>107</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H108" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="8">
+        <v>108</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H109" s="8"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="7">
+        <v>109</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7">
+        <v>5</v>
+      </c>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="8">
+        <v>110</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="H111" s="8"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="7">
+        <v>111</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H112" s="7"/>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="8">
+        <v>112</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8">
+        <v>20</v>
+      </c>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="7">
+        <v>113</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H114" s="7"/>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="8">
+        <v>114</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H115" s="8"/>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="7">
+        <v>115</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H116" s="7"/>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="8">
+        <v>116</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="H117" s="8"/>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="7">
+        <v>117</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H118" s="7"/>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="8">
+        <v>118</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8">
+        <v>20</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H119" s="8"/>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="7">
+        <v>119</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="8">
+        <v>120</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8">
+        <v>10</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H121" s="8"/>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="7">
+        <v>121</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H122" s="7"/>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="8">
+        <v>122</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8">
+        <v>5</v>
+      </c>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="7">
+        <v>123</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H124" s="7"/>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="8">
+        <v>124</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8">
         <v>4</v>
       </c>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="8"/>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" s="10">
-        <v>105</v>
-      </c>
-      <c r="B106" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D106" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="E106" s="11"/>
-      <c r="F106" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="G106" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="H106" s="16"/>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" s="10">
-        <v>106</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9">
-        <v>5</v>
-      </c>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="8"/>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" s="10">
-        <v>107</v>
-      </c>
-      <c r="B108" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C108" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D108" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E108" s="11"/>
-      <c r="F108" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G108" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H108" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="10">
-        <v>108</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G109" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H109" s="18"/>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" s="10">
-        <v>109</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9">
-        <v>5</v>
-      </c>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="18"/>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" s="10">
-        <v>110</v>
-      </c>
-      <c r="B111" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C111" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D111" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="E111" s="17"/>
-      <c r="F111" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="G111" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="H111" s="17"/>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="10">
-        <v>111</v>
-      </c>
-      <c r="B112" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C112" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D112" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="E112" s="20"/>
-      <c r="F112" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="G112" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="H112" s="20"/>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" s="10">
-        <v>112</v>
-      </c>
-      <c r="B113" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C113" s="17"/>
-      <c r="D113" s="17"/>
-      <c r="E113" s="17">
-        <v>20</v>
-      </c>
-      <c r="F113" s="17"/>
-      <c r="G113" s="17"/>
-      <c r="H113" s="17"/>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" s="10">
-        <v>113</v>
-      </c>
-      <c r="B114" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C114" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D114" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="E114" s="20"/>
-      <c r="F114" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="G114" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="H114" s="20"/>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" s="10">
-        <v>114</v>
-      </c>
-      <c r="B115" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C115" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D115" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="E115" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="F115" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="G115" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="H115" s="17"/>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" s="10">
-        <v>115</v>
-      </c>
-      <c r="B116" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C116" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D116" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="E116" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="F116" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="G116" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="H116" s="20"/>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117" s="10">
-        <v>116</v>
-      </c>
-      <c r="B117" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="C117" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D117" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="E117" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="F117" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="G117" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="H117" s="17"/>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" s="10">
-        <v>117</v>
-      </c>
-      <c r="B118" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C118" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D118" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E118" s="20"/>
-      <c r="F118" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="G118" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="H118" s="20"/>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" s="10">
-        <v>118</v>
-      </c>
-      <c r="B119" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C119" s="17"/>
-      <c r="D119" s="17"/>
-      <c r="E119" s="17">
-        <v>20</v>
-      </c>
-      <c r="F119" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G119" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H119" s="17"/>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" s="10">
-        <v>119</v>
-      </c>
-      <c r="B120" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="C120" s="20"/>
-      <c r="D120" s="20"/>
-      <c r="E120" s="20"/>
-      <c r="F120" s="20"/>
-      <c r="G120" s="20"/>
-      <c r="H120" s="20"/>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" s="10">
-        <v>120</v>
-      </c>
-      <c r="B121" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C121" s="17"/>
-      <c r="D121" s="17"/>
-      <c r="E121" s="17">
-        <v>10</v>
-      </c>
-      <c r="F121" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G121" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H121" s="17"/>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" s="10">
-        <v>121</v>
-      </c>
-      <c r="B122" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C122" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D122" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="E122" s="20"/>
-      <c r="F122" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="G122" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="H122" s="20"/>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" s="10">
-        <v>122</v>
-      </c>
-      <c r="B123" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C123" s="17"/>
-      <c r="D123" s="17"/>
-      <c r="E123" s="17">
-        <v>5</v>
-      </c>
-      <c r="F123" s="17"/>
-      <c r="G123" s="17"/>
-      <c r="H123" s="17"/>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" s="10">
-        <v>123</v>
-      </c>
-      <c r="B124" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C124" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D124" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="E124" s="11"/>
-      <c r="F124" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="G124" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="H124" s="11"/>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" s="10">
-        <v>124</v>
-      </c>
-      <c r="B125" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9">
-        <v>4</v>
-      </c>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="9"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="7">

--- a/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Save_Back_Front_Navi.xlsx
+++ b/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Save_Back_Front_Navi.xlsx
@@ -1022,10 +1022,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1053,14 +1053,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1075,7 +1120,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1083,7 +1136,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1091,30 +1144,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1130,7 +1168,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1145,22 +1183,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1170,29 +1193,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1217,13 +1217,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1235,127 +1229,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1373,7 +1259,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1385,19 +1343,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1495,21 +1495,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1520,6 +1505,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1539,6 +1535,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1547,27 +1558,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1579,130 +1579,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2145,8 +2145,8 @@
   <sheetPr/>
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2280,7 +2280,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -2384,7 +2384,7 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -2422,7 +2422,7 @@
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>39</v>
@@ -2460,7 +2460,7 @@
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -2654,7 +2654,7 @@
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>39</v>
@@ -3218,7 +3218,7 @@
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
@@ -3878,7 +3878,7 @@
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
@@ -4350,7 +4350,7 @@
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
       <c r="E105" s="8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
@@ -4510,7 +4510,7 @@
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
       <c r="E113" s="8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
@@ -4642,7 +4642,7 @@
       <c r="C119" s="8"/>
       <c r="D119" s="8"/>
       <c r="E119" s="8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F119" s="8" t="s">
         <v>12</v>

--- a/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Save_Back_Front_Navi.xlsx
+++ b/QA/testcases/LLS/Pharmacy/L_Phar_Patient_App_Save_Back_Front_Navi.xlsx
@@ -486,7 +486,7 @@
     <t>APP_PLANTYPE</t>
   </si>
   <si>
-    <t>Other</t>
+    <t>COBRA</t>
   </si>
   <si>
     <t>Select Plan type</t>
@@ -1022,10 +1022,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1052,6 +1052,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1067,53 +1136,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1127,16 +1151,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1150,22 +1174,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1174,29 +1182,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1217,7 +1217,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1229,7 +1283,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1241,7 +1307,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1253,25 +1361,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1283,85 +1391,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1373,36 +1403,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1463,6 +1469,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -1495,6 +1512,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1505,17 +1537,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1535,21 +1556,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1558,10 +1564,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1579,134 +1596,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1716,6 +1733,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2145,8 +2163,8 @@
   <sheetPr/>
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F116" sqref="F116"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3613,7 +3631,7 @@
       <c r="D69" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="E69" s="9" t="s">
         <v>151</v>
       </c>
       <c r="F69" s="8" t="s">
